--- a/Documentation/Journaux_de_travail/JournalTravailAlex/Journal_de_travail_I_Shoes_ALEX.xlsx
+++ b/Documentation/Journaux_de_travail/JournalTravailAlex/Journal_de_travail_I_Shoes_ALEX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\I_Shoes\Documentation\Journaux_de_travail\JournalTravailAlex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC2DCE2-9D08-4236-A6A8-DE5E22E8B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FA86F9-BDE9-44B3-B588-18C5563B4B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_de_travail" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Diagramme de flux</t>
   </si>
   <si>
-    <t>§</t>
-  </si>
-  <si>
     <t>Page ACCUEIL</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Recherche images pour le site + détermination des objectifs pour la finalisation du site</t>
+  </si>
+  <si>
+    <t>Ajout d'articles sur le site + images et prix</t>
   </si>
 </sst>
 </file>
@@ -329,36 +329,6 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -388,6 +358,36 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -409,7 +409,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Journal_de_travail"/>
-      <sheetName val="Journal_de_travail_I_Shoes"/>
+      <sheetName val="Journal de travail Sacha"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -427,9 +427,11 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Journal_de_travail"/>
+      <sheetName val="Journal_de_travail_I_Shoes"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -443,15 +445,15 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Début" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fin" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="7">
-      <calculatedColumnFormula>SUM([1]!Tableau1[[#This Row],[Fin]]-[1]!Tableau1[[#This Row],[Début]])</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Début" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fin" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée" dataDxfId="1">
+      <calculatedColumnFormula>SUM([2]!Tableau1[[#This Row],[Fin]]-[2]!Tableau1[[#This Row],[Début]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Thème"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nom de présence"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1100"/>
+  <dimension ref="A1:I1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +738,7 @@
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44959</v>
       </c>
@@ -787,7 +789,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44959</v>
       </c>
@@ -802,7 +804,7 @@
         <v>5.902777777777779E-2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
@@ -814,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44959</v>
       </c>
@@ -829,7 +831,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
@@ -841,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44959</v>
       </c>
@@ -856,7 +858,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -868,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44959</v>
       </c>
@@ -883,7 +885,7 @@
         <v>1.736111111111116E-2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>11</v>
@@ -895,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -904,7 +906,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44966</v>
       </c>
@@ -919,17 +921,17 @@
         <v>0.10763888888888884</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -938,7 +940,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44978</v>
       </c>
@@ -962,11 +964,8 @@
         <v>19</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44978</v>
       </c>
@@ -993,7 +992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44985</v>
       </c>
@@ -1008,19 +1007,19 @@
         <v>3.125E-2</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44986</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>0.11458333333333337</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>11</v>
@@ -1045,7 +1044,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44992</v>
       </c>
@@ -1060,19 +1059,19 @@
         <v>3.125E-2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44994</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="D15" s="9">
-        <f>SUM([2]!Tableau1[[#This Row],[Fin]]-[2]!Tableau1[[#This Row],[Début]])</f>
+        <f>SUM([1]!Tableau1[[#This Row],[Fin]]-[1]!Tableau1[[#This Row],[Début]])</f>
         <v>2.9861111111111227E-2</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1093,11 +1092,11 @@
         <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1118,11 +1117,11 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D17" s="9">
-        <f>SUM([2]!Tableau1[[#This Row],[Fin]]-[2]!Tableau1[[#This Row],[Début]])</f>
+        <f>SUM([1]!Tableau1[[#This Row],[Fin]]-[1]!Tableau1[[#This Row],[Début]])</f>
         <v>8.3333333333334147E-3</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>11</v>
@@ -1144,20 +1143,20 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D18" s="9">
-        <f>SUM([2]!Tableau1[[#This Row],[Fin]]-[2]!Tableau1[[#This Row],[Début]])</f>
+        <f>SUM([1]!Tableau1[[#This Row],[Fin]]-[1]!Tableau1[[#This Row],[Début]])</f>
         <v>3.819444444444442E-2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -1182,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="16"/>
     </row>
@@ -1201,17 +1200,17 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45008</v>
       </c>
@@ -1225,9 +1224,15 @@
         <f>SUM(Tableau1[[#This Row],[Fin]]-Tableau1[[#This Row],[Début]])</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5798,26 +5803,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A13 A19:A1048576">
-    <cfRule type="timePeriod" dxfId="5" priority="13" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="9" priority="13" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="14" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="8" priority="14" timePeriod="yesterday">
       <formula>FLOOR(A1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="7" priority="3" timePeriod="today">
       <formula>FLOOR(A14,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="6" priority="4" timePeriod="yesterday">
       <formula>FLOOR(A14,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A18">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="today">
       <formula>FLOOR(A15,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="4" priority="2" timePeriod="yesterday">
       <formula>FLOOR(A15,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
